--- a/medicine/Enfance/Le_Garçon_au_cerf-volant/Le_Garçon_au_cerf-volant.xlsx
+++ b/medicine/Enfance/Le_Garçon_au_cerf-volant/Le_Garçon_au_cerf-volant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Gar%C3%A7on_au_cerf-volant</t>
+          <t>Le_Garçon_au_cerf-volant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Garçon au cerf-volant est un roman pour adolescent de Monique Corriveau, paru en 1974.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Gar%C3%A7on_au_cerf-volant</t>
+          <t>Le_Garçon_au_cerf-volant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le village de Brunante, un été, un garçon de 14 ans, Arnaud Colin, passe les vacances avec son père Norbert dans un chalet isolé. Mathilde, mère d’Arnaud, a été victime d’un accident de la route alors que le couple se rendaient chez l’éditeur avec le manuscrit de Norbert, Le Roman heureux. Arnaud est laissé à lui-même, tandis que Norbert est accaparé par un nouvel ouvrage. Le garçon se fabrique un cerf-volant et fait la rencontre de Nathalie, qui s’étonne que le cerf-volant soit fabriqué avec un manuscrit. C’est le manuscrit du Roman heureux, censé avoir été détruit. Arnaud tente secrètement de le faire éditer.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Gar%C3%A7on_au_cerf-volant</t>
+          <t>Le_Garçon_au_cerf-volant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le garçon au cerf-volant, Montréal, Fides, coll. « du Goéland », 1974.  (ISBN 0-77-55-0515-3) , 
 A Perfect Day for Kites, Vancouver, Groundwood (traduction de David Homel), 1981, 116 p.  (ISBN 088899012X)
